--- a/assets/doc/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/assets/doc/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zynox\OneDrive\Bureau\SLAM\portfolio\assets\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812DC4EB-59F1-40F5-A5D2-4CA3B9FC9534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18CF5F2-D6C6-4FF1-BD28-21C3EE42F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -157,9 +157,6 @@
 d'incidents</t>
   </si>
   <si>
-    <t xml:space="preserve">Création d'une entreprise fictive (L'Auberge) </t>
-  </si>
-  <si>
     <t>Organisation d'une solution technique (M2L)</t>
   </si>
   <si>
@@ -181,13 +178,28 @@
     <t>ChezTalion  - Réalisation d'un site Web</t>
   </si>
   <si>
-    <t>Du 18/05/2023 à maintenant</t>
-  </si>
-  <si>
-    <t>ChezTalion - apprenitssage supervisé</t>
-  </si>
-  <si>
     <t>Adresse URL du portfolio : https://yoann86.github.io/</t>
+  </si>
+  <si>
+    <t>Du 18/05/2023 au 28/06/2023</t>
+  </si>
+  <si>
+    <t>ChezTalion - Apprentissage supervisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d'une entreprise fictive et de son site (L'Auberge) </t>
+  </si>
+  <si>
+    <t>GANT ?</t>
+  </si>
+  <si>
+    <t>AP3 ?</t>
+  </si>
+  <si>
+    <t>Inventaire ?</t>
+  </si>
+  <si>
+    <t>Réalisation portfolio ?</t>
   </si>
 </sst>
 </file>
@@ -659,22 +671,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -724,38 +727,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -789,6 +777,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1285,13 +1300,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1338,13 +1353,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1391,13 +1406,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>536713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1444,13 +1459,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1497,13 +1512,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>536713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1550,13 +1565,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2063,13 +2078,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19878</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2116,13 +2131,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19878</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>504963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2520,10 +2535,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ77"/>
+  <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2536,123 +2551,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="A5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I7"/>
@@ -2692,16 +2707,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2739,18 +2754,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -2785,21 +2800,20 @@
       <c r="AN9"/>
       <c r="AO9"/>
       <c r="AP9"/>
-      <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -2834,21 +2848,20 @@
       <c r="AN10"/>
       <c r="AO10"/>
       <c r="AP10"/>
-      <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -2883,21 +2896,20 @@
       <c r="AN11"/>
       <c r="AO11"/>
       <c r="AP11"/>
-      <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -2932,21 +2944,20 @@
       <c r="AN12"/>
       <c r="AO12"/>
       <c r="AP12"/>
-      <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -2984,18 +2995,18 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -3033,18 +3044,18 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -3082,14 +3093,16 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -3126,17 +3139,17 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -3174,18 +3187,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -3223,18 +3234,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="A19" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -3272,14 +3281,14 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -3317,14 +3326,14 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -3361,15 +3370,15 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -3406,17 +3415,17 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -3454,14 +3463,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -3499,14 +3512,18 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -3544,14 +3561,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -3589,14 +3606,14 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -3634,14 +3651,14 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -3678,15 +3695,17 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -3723,113 +3742,160 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
+    <row r="30" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
+    <row r="31" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3857,22 +3923,19 @@
     <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
+  <mergeCells count="11">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3884,15 +3947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002338DD58AC86894E92A5BEFCB2D30A8D" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b073224b491898f5bb610979279e59c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a54630e7-b857-4bdf-808b-f1da7c130004" xmlns:ns3="57e91659-be1d-4d29-8a34-37188ca8e23d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f2c6147616482782723debbc5b2f32a" ns2:_="" ns3:_="">
     <xsd:import namespace="a54630e7-b857-4bdf-808b-f1da7c130004"/>
@@ -4309,6 +4363,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4366,14 +4429,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B284ED27-3496-42FE-8F98-11549EA57EF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4392,6 +4447,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A1D336-8C6A-4F82-BD4C-ECADBE989409}">
   <ds:schemaRefs>

--- a/assets/doc/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/assets/doc/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zynox\OneDrive\Bureau\SLAM\portfolio\assets\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18CF5F2-D6C6-4FF1-BD28-21C3EE42F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE7CEBA-9CAA-4E3D-863D-B09B3C7D82E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="4410" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$19</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -132,18 +132,6 @@
     <t>Du 26/10/2022 au 13/01/2023</t>
   </si>
   <si>
-    <t>Du 03/23 au 05/23</t>
-  </si>
-  <si>
-    <t>Du 11/22 à maintenant</t>
-  </si>
-  <si>
-    <t>Du 02/23 au 03/23</t>
-  </si>
-  <si>
-    <t>Du 04/23 à maintenant</t>
-  </si>
-  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
@@ -151,13 +139,6 @@
   </si>
   <si>
     <t>NOM et prénom : CURTY Yoann</t>
-  </si>
-  <si>
-    <t>Installation et Configuration d'un serveur GLPI pour la gestion des tickets 
-d'incidents</t>
-  </si>
-  <si>
-    <t>Organisation d'une solution technique (M2L)</t>
   </si>
   <si>
     <t>Mise en place d'un environnement de travail personnel</t>
@@ -170,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mise en place d'un flux RSS (Feedly) </t>
-  </si>
-  <si>
-    <t>Du 07/2020 à maintenant</t>
   </si>
   <si>
     <t>ChezTalion  - Réalisation d'un site Web</t>
@@ -190,16 +168,37 @@
     <t xml:space="preserve">Création d'une entreprise fictive et de son site (L'Auberge) </t>
   </si>
   <si>
-    <t>GANT ?</t>
+    <t>Installation et Configuration d'un serveur GLPI pour la gestion des tickets d'incidents</t>
   </si>
   <si>
-    <t>AP3 ?</t>
+    <t>Réalisation d'un inventaire d'équipements informatiques</t>
   </si>
   <si>
-    <t>Inventaire ?</t>
+    <t>Développement d'une application légère (site web) pour le contexte M2L</t>
   </si>
   <si>
-    <t>Réalisation portfolio ?</t>
+    <t>Organisation des projets d'applications pour le contexte M2L</t>
+  </si>
+  <si>
+    <t>De 07/2020 à maintenant</t>
+  </si>
+  <si>
+    <t>Le 18/09/2024</t>
+  </si>
+  <si>
+    <t>De 10/2023 à 01/2024</t>
+  </si>
+  <si>
+    <t>De 02/2023 à 03/2023</t>
+  </si>
+  <si>
+    <t>De 04/2023 à maintenant</t>
+  </si>
+  <si>
+    <t>De 02/2023 à 05/2023</t>
+  </si>
+  <si>
+    <t>De 11/2022 à maintenant</t>
   </si>
 </sst>
 </file>
@@ -671,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -727,23 +726,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -778,32 +792,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1095,7 +1091,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1139,26 +1135,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>536713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Connecteur droit 5">
+        <xdr:cNvPr id="30" name="Connecteur droit 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A084E03-657F-4317-A760-1ACC42EA5512}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07466A58-37A8-46D2-892C-089ECD8333A8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CDC3D7FA-3501-4349-8A48-B5944B7FDA53}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{46B63E76-B3E1-4727-93C3-87EC0FDF22E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,61 +1162,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696700" y="8029575"/>
-          <a:ext cx="1267654" cy="536713"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Connecteur droit 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED935B1C-2322-4FD1-AD9F-4435EE4E0EE2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3A084E03-657F-4317-A760-1ACC42EA5512}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11696700" y="8029575"/>
-          <a:ext cx="1267654" cy="568601"/>
+          <a:off x="11696700" y="10610850"/>
+          <a:ext cx="1267654" cy="508138"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1247,77 +1190,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Connecteur droit 6">
+        <xdr:cNvPr id="31" name="Connecteur droit 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259733E1-71E9-418D-B21F-47A0F1342E21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21E08C0-AFEF-4F59-8E2B-48A0E75703D4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{128FCD91-7C3E-493E-B9BA-95836953446C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11696700" y="8029575"/>
-          <a:ext cx="1267654" cy="568601"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Connecteur droit 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19282390-43F9-4DDA-B4C7-3AC7895B81FF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{93723703-4CF6-4B24-BAA6-818A95244B8E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{07466A58-37A8-46D2-892C-089ECD8333A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,79 +1241,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Connecteur droit 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B63E76-B3E1-4727-93C3-87EC0FDF22E6}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{12906C3A-69F6-4731-AB27-2B37BE447A13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11696700" y="10610850"/>
-          <a:ext cx="1267654" cy="511451"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>536713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Connecteur droit 5">
+        <xdr:cNvPr id="32" name="Connecteur droit 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07466A58-37A8-46D2-892C-089ECD8333A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB700BC-6AED-4157-9972-9A726AE2DAEE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{46B63E76-B3E1-4727-93C3-87EC0FDF22E6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F21E08C0-AFEF-4F59-8E2B-48A0E75703D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,119 +1296,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Connecteur droit 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21E08C0-AFEF-4F59-8E2B-48A0E75703D4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{07466A58-37A8-46D2-892C-089ECD8333A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11696700" y="10610850"/>
-          <a:ext cx="1267654" cy="511451"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>536713</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Connecteur droit 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB700BC-6AED-4157-9972-9A726AE2DAEE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F21E08C0-AFEF-4F59-8E2B-48A0E75703D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11696700" y="10610850"/>
-          <a:ext cx="1267654" cy="508138"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1760,13 +1491,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>536713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1787,6 +1518,377 @@
         <a:xfrm>
           <a:off x="7953375" y="8029575"/>
           <a:ext cx="1267654" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A640B871-9BF5-401B-9024-5D95D2B6A859}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F6C0BD78-616C-4F05-8360-13E6F3A996EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7953375" y="8029575"/>
+          <a:ext cx="1267654" cy="568601"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>536713</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0B5748-030D-4919-A006-EFAA1AEEE0EE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{343BABC5-DED8-4DB2-9F7D-2C0F472EAF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="8029575"/>
+          <a:ext cx="1267654" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F102C66-F6E9-442B-A0A1-5A15E3982263}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1A0B5748-030D-4919-A006-EFAA1AEEE0EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7953375" y="8029575"/>
+          <a:ext cx="1267654" cy="568601"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F3410A-E3F4-4818-9C59-67A5E03DF7CD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FA680B88-F0B7-4CC2-B6E5-22E927B0F96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10942411" y="12926786"/>
+          <a:ext cx="1323896" cy="516894"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>504963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connecteur droit 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BC2335-E0B6-4F83-935E-A38453A0739C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9E3E6C1C-9A71-4318-B65D-14DBC8241169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10942411" y="12926786"/>
+          <a:ext cx="1323896" cy="504963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7BB5FF-E088-425F-BC9A-938650C481FA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{13E613CC-E9ED-48BC-B021-FEE8B9C24FB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7033846" y="8049846"/>
+          <a:ext cx="1328956" cy="563472"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>536713</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connecteur droit 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8811FB8B-2C10-415F-A025-2527627D02EB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C6633740-0137-4CFC-A3E8-671855E58B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7033846" y="8049846"/>
+          <a:ext cx="1328956" cy="536713"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1820,26 +1922,26 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:rowOff>28713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Connecteur droit 6">
+        <xdr:cNvPr id="21" name="Connecteur droit 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A640B871-9BF5-401B-9024-5D95D2B6A859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8700ABEA-0712-4162-9348-0775322E16DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F6C0BD78-616C-4F05-8360-13E6F3A996EF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C6633740-0137-4CFC-A3E8-671855E58B0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7953375" y="8029575"/>
-          <a:ext cx="1267654" cy="568601"/>
+        <a:xfrm>
+          <a:off x="13579231" y="10130692"/>
+          <a:ext cx="1328956" cy="536713"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1864,35 +1966,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19538</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>536713</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>498231</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Connecteur droit 5">
+        <xdr:cNvPr id="22" name="Connecteur droit 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B158818-069E-46B8-9DF7-104DDC767FE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F14C210-1D65-4DC0-811A-274B4E6DF197}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A640B871-9BF5-401B-9024-5D95D2B6A859}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{13E613CC-E9ED-48BC-B021-FEE8B9C24FB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7953375" y="8029575"/>
-          <a:ext cx="1267654" cy="536713"/>
+        <a:xfrm flipV="1">
+          <a:off x="13598769" y="10130692"/>
+          <a:ext cx="1309418" cy="498231"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1917,26 +2019,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Connecteur droit 6">
+        <xdr:cNvPr id="24" name="Connecteur droit 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343BABC5-DED8-4DB2-9F7D-2C0F472EAF84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB0AFBE-085F-41DD-BA24-57840EAA808C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B158818-069E-46B8-9DF7-104DDC767FE7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{13E613CC-E9ED-48BC-B021-FEE8B9C24FB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,8 +2046,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7953375" y="8029575"/>
-          <a:ext cx="1267654" cy="568601"/>
+          <a:off x="13608538" y="11146692"/>
+          <a:ext cx="1299649" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1979,14 +2081,14 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>536713</xdr:rowOff>
+      <xdr:rowOff>504963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Connecteur droit 5">
+        <xdr:cNvPr id="25" name="Connecteur droit 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0B5748-030D-4919-A006-EFAA1AEEE0EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F802914B-1F8F-4FC6-8529-82A4E96EF1EB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{343BABC5-DED8-4DB2-9F7D-2C0F472EAF84}"/>
@@ -1997,8 +2099,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7953375" y="8029575"/>
-          <a:ext cx="1267654" cy="536713"/>
+          <a:off x="13579231" y="11146692"/>
+          <a:ext cx="1328956" cy="504963"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2023,26 +2125,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29648</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>504963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Connecteur droit 6">
+        <xdr:cNvPr id="41" name="Connecteur droit 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F102C66-F6E9-442B-A0A1-5A15E3982263}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E450EE0-43F7-4231-95A9-894BC5384A39}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1A0B5748-030D-4919-A006-EFAA1AEEE0EE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{343BABC5-DED8-4DB2-9F7D-2C0F472EAF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7043615" y="11654692"/>
+          <a:ext cx="1328956" cy="504963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29648</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>498231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5348F3EA-AB89-4281-92F9-530AA7B74523}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{13E613CC-E9ED-48BC-B021-FEE8B9C24FB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,8 +2205,114 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7953375" y="8029575"/>
-          <a:ext cx="1267654" cy="568601"/>
+          <a:off x="7033846" y="11654692"/>
+          <a:ext cx="1338725" cy="498231"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>504963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Connecteur droit 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE1723F-16D8-44BF-A7C6-5BF34CB1852A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5021435D-79CE-4E76-9E19-F3C24671EA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652000" y="10638692"/>
+          <a:ext cx="1328956" cy="504963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41736B17-0209-4288-9B16-9EFCF0D7C570}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B3DD61B-D5A2-4CA1-AE18-3FD8B77CAD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9652000" y="10638692"/>
+          <a:ext cx="1328956" cy="514626"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2078,33 +2339,33 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19878</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>504963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Connecteur droit 6">
+        <xdr:cNvPr id="45" name="Connecteur droit 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F3410A-E3F4-4818-9C59-67A5E03DF7CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFB23EA-3679-43B6-A7C9-7EE12DF7364C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FA680B88-F0B7-4CC2-B6E5-22E927B0F96A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5021435D-79CE-4E76-9E19-F3C24671EA30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10942411" y="12926786"/>
-          <a:ext cx="1323896" cy="516894"/>
+        <a:xfrm>
+          <a:off x="10961077" y="11654692"/>
+          <a:ext cx="1328956" cy="504963"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2131,24 +2392,77 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19878</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C4EEEA-003A-4310-950F-9ED4A5A95CB4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B3DD61B-D5A2-4CA1-AE18-3FD8B77CAD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10961077" y="11654692"/>
+          <a:ext cx="1328956" cy="514626"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>504963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Connecteur droit 5">
+        <xdr:cNvPr id="47" name="Connecteur droit 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BC2335-E0B6-4F83-935E-A38453A0739C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC1A848-3445-4F6F-B13F-1092CD8F8B26}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9E3E6C1C-9A71-4318-B65D-14DBC8241169}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5021435D-79CE-4E76-9E19-F3C24671EA30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,8 +2470,273 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10942411" y="12926786"/>
-          <a:ext cx="1323896" cy="504963"/>
+          <a:off x="9652000" y="12670692"/>
+          <a:ext cx="1328956" cy="504963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B74079-3960-4CE6-8697-4A5C5AA620E1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B3DD61B-D5A2-4CA1-AE18-3FD8B77CAD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9652000" y="12670692"/>
+          <a:ext cx="1328956" cy="514626"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>504963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur droit 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A7C326-2B90-42AD-98CF-2A32BFDA016A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5021435D-79CE-4E76-9E19-F3C24671EA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10961077" y="12670692"/>
+          <a:ext cx="1328956" cy="504963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E626481B-1AD7-47B7-80BA-F57931AA551C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B3DD61B-D5A2-4CA1-AE18-3FD8B77CAD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10961077" y="12670692"/>
+          <a:ext cx="1328956" cy="514626"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>504963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Connecteur droit 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C0533A-58C2-469A-AAEE-04F0391F2BE9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5021435D-79CE-4E76-9E19-F3C24671EA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652000" y="14194692"/>
+          <a:ext cx="1328956" cy="504963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Connecteur droit 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37170F48-A5E3-4F3D-8FEC-A3078F1A6EC9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B3DD61B-D5A2-4CA1-AE18-3FD8B77CAD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9652000" y="14194692"/>
+          <a:ext cx="1328956" cy="514626"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2535,10 +3114,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ75"/>
+  <dimension ref="A1:AQ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2551,56 +3130,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
+      <c r="A3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="27"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
@@ -2612,22 +3191,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="A5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2650,8 +3229,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
@@ -2707,16 +3286,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2755,7 +3334,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -2803,7 +3382,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -2851,17 +3430,17 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="12"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -2899,10 +3478,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2944,13 +3523,14 @@
       <c r="AN12"/>
       <c r="AO12"/>
       <c r="AP12"/>
+      <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2996,17 +3576,17 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -3045,10 +3625,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3094,9 +3674,11 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -3141,9 +3723,11 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -3187,9 +3771,7 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3233,17 +3815,15 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -3281,14 +3861,16 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -3326,8 +3908,12 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -3370,15 +3956,19 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -3416,16 +4006,14 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -3462,19 +4050,17 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -3511,56 +4097,17 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>41</v>
-      </c>
+    <row r="25" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
-      <c r="AL25"/>
-      <c r="AM25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="12"/>
@@ -3569,43 +4116,8 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="12"/>
@@ -3614,284 +4126,96 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
-      <c r="AP27"/>
-      <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-      <c r="AQ28"/>
+    <row r="28" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-      <c r="AN29"/>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
+    <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
+    <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
+    <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
+    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
+    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
+    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
+    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3914,39 +4238,40 @@
     <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002338DD58AC86894E92A5BEFCB2D30A8D" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b073224b491898f5bb610979279e59c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a54630e7-b857-4bdf-808b-f1da7c130004" xmlns:ns3="57e91659-be1d-4d29-8a34-37188ca8e23d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f2c6147616482782723debbc5b2f32a" ns2:_="" ns3:_="">
     <xsd:import namespace="a54630e7-b857-4bdf-808b-f1da7c130004"/>
@@ -4363,15 +4688,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4429,6 +4745,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B284ED27-3496-42FE-8F98-11549EA57EF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4447,21 +4771,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A1D336-8C6A-4F82-BD4C-ECADBE989409}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
     <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
-    <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>